--- a/ControlCambios/07_Pruebas/Pruebas_011.xlsx
+++ b/ControlCambios/07_Pruebas/Pruebas_011.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t xml:space="preserve">ID: </t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Fecha:</t>
-  </si>
-  <si>
-    <t>14/3/2024</t>
   </si>
   <si>
     <t>ID Documento base:</t>
@@ -121,9 +118,6 @@
   </si>
   <si>
     <t>Estado</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Acciones Correctivas</t>
@@ -151,6 +145,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -184,12 +184,6 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -255,6 +249,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -348,13 +349,6 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom/>
@@ -632,165 +626,159 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="86">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="20" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
@@ -802,12 +790,12 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -817,64 +805,61 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="28" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="28" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="12" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -1206,17 +1191,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="86" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="86" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="86" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="87" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="87" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="87" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="87" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="87" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="87" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="88" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="87" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="83" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="83" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="83" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="84" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="84" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="84" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="84" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="84" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="84" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="85" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="84" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1258,7 +1243,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1274,29 +1259,29 @@
       <c r="I4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>3</v>
+      <c r="J4" s="8">
+        <v>45365</v>
       </c>
       <c r="K4" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="13"/>
       <c r="K5" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1309,7 +1294,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1322,22 +1307,22 @@
       <c r="J7" s="26"/>
       <c r="K7" s="27"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+        <v>5</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="30"/>
+      <c r="J8" s="29"/>
       <c r="K8" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1350,600 +1335,596 @@
       <c r="J9" s="19"/>
       <c r="K9" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="35"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="G11" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="33"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="35"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="46"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="44"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
+        <v>12</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="30"/>
+      <c r="J14" s="29"/>
       <c r="K14" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="48"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
       <c r="K15" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
       <c r="K16" s="20"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="15"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
       <c r="K17" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="56"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
       <c r="K18" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="59"/>
       <c r="K19" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="30"/>
+      <c r="J20" s="29"/>
       <c r="K20" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="34"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
       <c r="K21" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
       <c r="K22" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="30"/>
+      <c r="J23" s="29"/>
       <c r="K23" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="67"/>
+      <c r="D24" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="30"/>
+      <c r="J25" s="29"/>
       <c r="K25" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="34"/>
+      <c r="D26" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="32"/>
       <c r="K26" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="41"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="39"/>
       <c r="K27" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="69"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="67"/>
       <c r="K28" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="34"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="50"/>
+      <c r="G29" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
       <c r="K29" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
       <c r="K30" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
-      <c r="J31" s="30"/>
+      <c r="J31" s="29"/>
       <c r="K31" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="67"/>
+      <c r="D32" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="65"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
-      <c r="J33" s="30"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="34"/>
+      <c r="D34" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="50"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
       <c r="K34" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="41"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="39"/>
       <c r="K35" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="69"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="67"/>
       <c r="K36" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="34"/>
+      <c r="D37" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="50"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="32"/>
       <c r="K37" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="41"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="39"/>
       <c r="K38" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
-      <c r="J39" s="30"/>
+      <c r="J39" s="29"/>
       <c r="K39" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="48"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="50"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="48"/>
       <c r="K40" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="74"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="67"/>
+      <c r="D41" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="72"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="65"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="48"/>
+      <c r="D42" s="46"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="50"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="48"/>
       <c r="K42" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="29" t="s">
+      <c r="D43" s="46"/>
+      <c r="E43" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="16"/>
+      <c r="G43" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="38"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="36"/>
       <c r="K43" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="48"/>
+      <c r="D44" s="46"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="50"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="48"/>
       <c r="K44" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="38"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="36"/>
       <c r="K45" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="48"/>
+      <c r="D46" s="46"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="50"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="48"/>
       <c r="K46" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
+      <c r="D47" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="36"/>
       <c r="K47" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="48"/>
+      <c r="D48" s="46"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="50"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="48"/>
       <c r="K48" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="81"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="78"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="20.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
-      <c r="J50" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="K50" s="85"/>
+      <c r="D50" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="36">
